--- a/medicine/Psychotrope/Café_Pamplona/Café_Pamplona.xlsx
+++ b/medicine/Psychotrope/Café_Pamplona/Café_Pamplona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Pamplona</t>
+          <t>Café_Pamplona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Café Pamplona est un café situé au 12 Bow St. à côté de l'intersection entre Bow Street et Arrow Street, près du Harvard Square, à Cambridge, Massachusetts, aux États-Unis. Lors de son ouverture en 1959, il était le seul café du Square. La propriétaire, Josefina Yanguas, affirmait que le café possédait la première machine à espresso de la ville. En bas d'un court escalier extérieur, après une terrasse avec des tables, les clients entrent dans l'intérieur souterrain du café. Le décor autrefois austère comprend de vives lumières jaunes qui font briller les murs de plâtre épais sous un plafond bas, et un sol en échiquier noir et blanc. Le café a survécu aux changements survenus depuis le milieu des années 1980.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Pamplona</t>
+          <t>Café_Pamplona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josefina Yanguas, à son arrivée en Amérique en 1947, a façonné le café d'après ceux de Pamplona en Espagne d'où elle était originaire. De 1959 à son décès en 2007, Yanguas fut la propriétaire du café.
 Peu après l'ouverture du café, Yanguas et son chef cubain Juana Rodríguez ont commencé à préparer et à servir de la nourriture. Quand l'entreprise s'est développée, Yanguas a commencé à n'embaucher que des hommes, en accord avec la pratique espagnole usuelle d'avoir un personnel d'un seul sexe, jusqu'en 1999. En automne de cette année, cette pratique fut révélée par le Harvard Crimson. Le manager James Timberlake embaucha fin 1999 Jenny Follen, la première femme employée par le café en 40 ans d'existence; depuis lors, le café a eu des pratiques d'embauches standards.
